--- a/fullspatialerrors_template.xlsx
+++ b/fullspatialerrors_template.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e122438\Desktop\Python\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taf53\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A671B-37A8-49A1-8BAA-6150B2282FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DAD58C-DEE3-4548-8BE6-33E368EE0F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
   <sheets>
     <sheet name="ruleDataItems" sheetId="3" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Summary!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Summary!$B$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="513">
   <si>
     <t>Rule</t>
   </si>
@@ -1261,13 +1261,331 @@
   </si>
   <si>
     <t>EMP</t>
+  </si>
+  <si>
+    <t>SJF01</t>
+  </si>
+  <si>
+    <t>SJF02</t>
+  </si>
+  <si>
+    <t>SJF03</t>
+  </si>
+  <si>
+    <t>SJF04</t>
+  </si>
+  <si>
+    <t>SJF05</t>
+  </si>
+  <si>
+    <t>SJF06</t>
+  </si>
+  <si>
+    <t>SJF07</t>
+  </si>
+  <si>
+    <t>SJF08</t>
+  </si>
+  <si>
+    <t>SJF09</t>
+  </si>
+  <si>
+    <t>SJF10</t>
+  </si>
+  <si>
+    <t>SJF11</t>
+  </si>
+  <si>
+    <t>SJF12</t>
+  </si>
+  <si>
+    <t>SJF13</t>
+  </si>
+  <si>
+    <t>SJF14</t>
+  </si>
+  <si>
+    <t>SJF15</t>
+  </si>
+  <si>
+    <t>SJF16</t>
+  </si>
+  <si>
+    <t>SJF17</t>
+  </si>
+  <si>
+    <t>SJF18</t>
+  </si>
+  <si>
+    <t>SJF19</t>
+  </si>
+  <si>
+    <t>SJF20</t>
+  </si>
+  <si>
+    <t>SJF21</t>
+  </si>
+  <si>
+    <t>SJF22</t>
+  </si>
+  <si>
+    <t>SJF23</t>
+  </si>
+  <si>
+    <t>SJF24</t>
+  </si>
+  <si>
+    <t>SJF25</t>
+  </si>
+  <si>
+    <t>SJF26</t>
+  </si>
+  <si>
+    <t>SJF27</t>
+  </si>
+  <si>
+    <t>SJF28</t>
+  </si>
+  <si>
+    <t>SJF29</t>
+  </si>
+  <si>
+    <t>SJF30</t>
+  </si>
+  <si>
+    <t>SJF31</t>
+  </si>
+  <si>
+    <t>SJF32</t>
+  </si>
+  <si>
+    <t>SJF33</t>
+  </si>
+  <si>
+    <t>SJF34</t>
+  </si>
+  <si>
+    <t>SJF35</t>
+  </si>
+  <si>
+    <t>SJF36</t>
+  </si>
+  <si>
+    <t>SJF37</t>
+  </si>
+  <si>
+    <t>SJF38</t>
+  </si>
+  <si>
+    <t>SJF39</t>
+  </si>
+  <si>
+    <t>SJF40</t>
+  </si>
+  <si>
+    <t>SJF41</t>
+  </si>
+  <si>
+    <t>SJF42</t>
+  </si>
+  <si>
+    <t>SJF43</t>
+  </si>
+  <si>
+    <t>SJF44</t>
+  </si>
+  <si>
+    <t>SJF45</t>
+  </si>
+  <si>
+    <t>SJF46</t>
+  </si>
+  <si>
+    <t>SJF47</t>
+  </si>
+  <si>
+    <t>SJF48</t>
+  </si>
+  <si>
+    <t>SJF49</t>
+  </si>
+  <si>
+    <t>SJF50</t>
+  </si>
+  <si>
+    <t>SJF51</t>
+  </si>
+  <si>
+    <t>SJF52</t>
+  </si>
+  <si>
+    <t>SJF53</t>
+  </si>
+  <si>
+    <t>SJF54</t>
+  </si>
+  <si>
+    <t>SJF55</t>
+  </si>
+  <si>
+    <t>SJF56</t>
+  </si>
+  <si>
+    <t>SJF57</t>
+  </si>
+  <si>
+    <t>SJF58</t>
+  </si>
+  <si>
+    <t>SJF59</t>
+  </si>
+  <si>
+    <t>SJF60</t>
+  </si>
+  <si>
+    <t>SJF61</t>
+  </si>
+  <si>
+    <t>SJF62</t>
+  </si>
+  <si>
+    <t>SJF63</t>
+  </si>
+  <si>
+    <t>SJF64</t>
+  </si>
+  <si>
+    <t>SJF65</t>
+  </si>
+  <si>
+    <t>SJF66</t>
+  </si>
+  <si>
+    <t>SJF67</t>
+  </si>
+  <si>
+    <t>SJF68</t>
+  </si>
+  <si>
+    <t>SJF69</t>
+  </si>
+  <si>
+    <t>SJF70</t>
+  </si>
+  <si>
+    <t>SJF71</t>
+  </si>
+  <si>
+    <t>SJF72</t>
+  </si>
+  <si>
+    <t>SJF73</t>
+  </si>
+  <si>
+    <t>SJF74</t>
+  </si>
+  <si>
+    <t>SJF75</t>
+  </si>
+  <si>
+    <t>SJF76</t>
+  </si>
+  <si>
+    <t>SJF77</t>
+  </si>
+  <si>
+    <t>SJF78</t>
+  </si>
+  <si>
+    <t>SJF79</t>
+  </si>
+  <si>
+    <t>SJF80</t>
+  </si>
+  <si>
+    <t>SJF81</t>
+  </si>
+  <si>
+    <t>SJF82a</t>
+  </si>
+  <si>
+    <t>SJF82b</t>
+  </si>
+  <si>
+    <t>SJF82c</t>
+  </si>
+  <si>
+    <t>SJF82d</t>
+  </si>
+  <si>
+    <t>SJF83a</t>
+  </si>
+  <si>
+    <t>SJF83b</t>
+  </si>
+  <si>
+    <t>SJF83c</t>
+  </si>
+  <si>
+    <t>SJF83d</t>
+  </si>
+  <si>
+    <t>SJF84</t>
+  </si>
+  <si>
+    <t>SJF85</t>
+  </si>
+  <si>
+    <t>SJF86</t>
+  </si>
+  <si>
+    <t>SJF87</t>
+  </si>
+  <si>
+    <t>SJF88</t>
+  </si>
+  <si>
+    <t>SJF89</t>
+  </si>
+  <si>
+    <t>SJF90</t>
+  </si>
+  <si>
+    <t>SJF91</t>
+  </si>
+  <si>
+    <t>SJF92</t>
+  </si>
+  <si>
+    <t>SJF93</t>
+  </si>
+  <si>
+    <t>SJF94</t>
+  </si>
+  <si>
+    <t>SJF95</t>
+  </si>
+  <si>
+    <t>SJF96</t>
+  </si>
+  <si>
+    <t>SJF97</t>
+  </si>
+  <si>
+    <t>SJF98</t>
+  </si>
+  <si>
+    <t>SJF99</t>
+  </si>
+  <si>
+    <t>SJF100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,6 +1597,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1322,10 +1648,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1355,21 +1682,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <u/>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1681,27 +2008,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2B6993-24F5-4E36-B923-10E570918712}">
   <dimension ref="A1:GA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="31.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="25" width="9.140625" style="7"/>
+    <col min="12" max="12" width="29.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="25" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +2034,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1724,7 +2049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -1748,7 +2073,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1763,7 +2088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1772,7 +2097,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1796,7 +2121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1814,7 +2139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
@@ -1838,7 +2163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1847,7 +2172,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
@@ -1856,7 +2181,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
@@ -1871,7 +2196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -1895,7 +2220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
@@ -1916,7 +2241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -1937,11 +2262,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="11" t="str">
+      <c r="B15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,NHS,SPEED_LIMIT</v>
       </c>
@@ -1955,7 +2280,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>44</v>
       </c>
@@ -1964,7 +2289,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>46</v>
       </c>
@@ -1991,7 +2316,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>49</v>
       </c>
@@ -2012,7 +2337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>52</v>
       </c>
@@ -2033,7 +2358,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>55</v>
       </c>
@@ -2054,7 +2379,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>58</v>
       </c>
@@ -2078,7 +2403,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>61</v>
       </c>
@@ -2099,7 +2424,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>64</v>
       </c>
@@ -2114,7 +2439,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>67</v>
       </c>
@@ -2135,7 +2460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>70</v>
       </c>
@@ -2150,7 +2475,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>73</v>
       </c>
@@ -2165,7 +2490,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>76</v>
       </c>
@@ -2180,7 +2505,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
@@ -2195,7 +2520,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>82</v>
       </c>
@@ -2216,7 +2541,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>85</v>
       </c>
@@ -2237,7 +2562,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>88</v>
       </c>
@@ -2255,7 +2580,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>91</v>
       </c>
@@ -2270,7 +2595,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>94</v>
       </c>
@@ -2285,7 +2610,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>97</v>
       </c>
@@ -2300,7 +2625,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>100</v>
       </c>
@@ -2315,7 +2640,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>103</v>
       </c>
@@ -2333,7 +2658,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>106</v>
       </c>
@@ -2348,7 +2673,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>109</v>
       </c>
@@ -2366,7 +2691,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>112</v>
       </c>
@@ -2387,7 +2712,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>115</v>
       </c>
@@ -2405,7 +2730,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>118</v>
       </c>
@@ -2420,7 +2745,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>121</v>
       </c>
@@ -2429,7 +2754,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>124</v>
       </c>
@@ -2453,7 +2778,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>126</v>
       </c>
@@ -2480,7 +2805,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>128</v>
       </c>
@@ -2501,7 +2826,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>131</v>
       </c>
@@ -2510,7 +2835,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>134</v>
       </c>
@@ -2534,7 +2859,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>136</v>
       </c>
@@ -2561,7 +2886,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>138</v>
       </c>
@@ -2588,7 +2913,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>141</v>
       </c>
@@ -2618,7 +2943,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>144</v>
       </c>
@@ -2627,7 +2952,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>147</v>
       </c>
@@ -2654,7 +2979,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>150</v>
       </c>
@@ -2684,7 +3009,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>153</v>
       </c>
@@ -2714,7 +3039,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>156</v>
       </c>
@@ -2744,7 +3069,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>159</v>
       </c>
@@ -2762,7 +3087,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>162</v>
       </c>
@@ -2777,7 +3102,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>165</v>
       </c>
@@ -2792,7 +3117,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>168</v>
       </c>
@@ -2807,7 +3132,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>171</v>
       </c>
@@ -2822,7 +3147,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>174</v>
       </c>
@@ -2837,7 +3162,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>177</v>
       </c>
@@ -2855,7 +3180,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>180</v>
       </c>
@@ -2864,7 +3189,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>182</v>
       </c>
@@ -2885,7 +3210,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>185</v>
       </c>
@@ -2900,7 +3225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>188</v>
       </c>
@@ -2909,7 +3234,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>190</v>
       </c>
@@ -2918,7 +3243,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>192</v>
       </c>
@@ -2927,7 +3252,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>194</v>
       </c>
@@ -2945,7 +3270,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>197</v>
       </c>
@@ -2957,7 +3282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>199</v>
       </c>
@@ -2972,7 +3297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>201</v>
       </c>
@@ -2984,7 +3309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>203</v>
       </c>
@@ -2996,7 +3321,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>205</v>
       </c>
@@ -3011,7 +3336,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>207</v>
       </c>
@@ -3023,7 +3348,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>209</v>
       </c>
@@ -3035,7 +3360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>211</v>
       </c>
@@ -3050,7 +3375,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>213</v>
       </c>
@@ -3062,7 +3387,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>215</v>
       </c>
@@ -3086,7 +3411,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>217</v>
       </c>
@@ -3110,7 +3435,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>218</v>
       </c>
@@ -3134,7 +3459,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>219</v>
       </c>
@@ -3158,7 +3483,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>221</v>
       </c>
@@ -3176,7 +3501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>224</v>
       </c>
@@ -3194,7 +3519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>226</v>
       </c>
@@ -3212,7 +3537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>227</v>
       </c>
@@ -3230,7 +3555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>229</v>
       </c>
@@ -3251,7 +3576,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>231</v>
       </c>
@@ -3272,7 +3597,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>232</v>
       </c>
@@ -3293,7 +3618,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>233</v>
       </c>
@@ -3314,7 +3639,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>234</v>
       </c>
@@ -3323,7 +3648,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>236</v>
       </c>
@@ -3332,7 +3657,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>238</v>
       </c>
@@ -3341,7 +3666,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>241</v>
       </c>
@@ -3350,7 +3675,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>243</v>
       </c>
@@ -3359,7 +3684,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>245</v>
       </c>
@@ -3374,7 +3699,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>247</v>
       </c>
@@ -3386,7 +3711,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>249</v>
       </c>
@@ -3398,7 +3723,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="99" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>251</v>
       </c>
@@ -3410,7 +3735,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>254</v>
       </c>
@@ -3422,7 +3747,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>256</v>
       </c>
@@ -3434,7 +3759,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>258</v>
       </c>
@@ -3446,7 +3771,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>260</v>
       </c>
@@ -3458,7 +3783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>262</v>
       </c>
@@ -3470,7 +3795,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>265</v>
       </c>
@@ -3482,14 +3807,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>267</v>
       </c>
       <c r="B106" s="10"/>
-      <c r="C106" s="12"/>
-    </row>
-    <row r="107" spans="1:183" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>270</v>
       </c>
@@ -3507,12 +3831,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="110" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="111" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:183" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>47</v>
       </c>
@@ -4075,1253 +4399,1684 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:F95"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="7" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <f ca="1">IF(ISREF(INDIRECT(A2&amp;"!A1")),HYPERLINK("#"&amp;A2&amp;"!A1",LEFT(A2)&amp;"-"&amp;MID(A2,2,1)&amp;"-"&amp;RIGHT(A2,2)),HYPERLINK(,LEFT(A2)&amp;"-"&amp;MID(A2,2,1)&amp;"-"&amp;RIGHT(A2,2)))</f>
+        <v>S-J-01</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f t="shared" ref="B3:B66" ca="1" si="0">IF(ISREF(INDIRECT(A3&amp;"!A1")),HYPERLINK("#"&amp;A3&amp;"!A1",LEFT(A3)&amp;"-"&amp;MID(A3,2,1)&amp;"-"&amp;RIGHT(A3,2)),HYPERLINK(,LEFT(A3)&amp;"-"&amp;MID(A3,2,1)&amp;"-"&amp;RIGHT(A3,2)))</f>
+        <v>S-J-02</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-03</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-04</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-05</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-06</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-07</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-08</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-09</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-10</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-11</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-12</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-13</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-14</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="8" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-15</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B17" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-16</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-17</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-18</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B20" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-19</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B21" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-20</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B22" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-21</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B23" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-22</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B24" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-23</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B25" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-24</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B26" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-25</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B27" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-26</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-27</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B29" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-28</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B30" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-29</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B31" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-30</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B32" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-31</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B33" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-32</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B34" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-33</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B35" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-34</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B36" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-35</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B37" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-36</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B38" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-37</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B39" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-38</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B40" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-39</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B41" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-40</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="8" t="s">
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B42" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-41</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B43" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-42</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B44" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-43</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B45" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-44</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" s="8" t="s">
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B46" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-45</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B47" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-46</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B48" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-47</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B49" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-48</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B50" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-49</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B51" s="8" t="s">
+    <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B51" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-50</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B52" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-51</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B53" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-52</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B54" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-53</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B55" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B55" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-54</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B56" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B56" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-55</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B57" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-56</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B58" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-57</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B59" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-58</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B60" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B60" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-59</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B61" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B61" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-60</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B62" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B62" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-61</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" s="8" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B63" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-62</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="1"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B64" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B64" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-63</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B65" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B65" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-64</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B66" s="8" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B66" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>S-J-65</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="1"/>
+      <c r="D66" s="3"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B67" s="8" t="s">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B67" s="7" t="str">
+        <f t="shared" ref="B67:B107" ca="1" si="1">IF(ISREF(INDIRECT(A67&amp;"!A1")),HYPERLINK("#"&amp;A67&amp;"!A1",LEFT(A67)&amp;"-"&amp;MID(A67,2,1)&amp;"-"&amp;RIGHT(A67,2)),HYPERLINK(,LEFT(A67)&amp;"-"&amp;MID(A67,2,1)&amp;"-"&amp;RIGHT(A67,2)))</f>
+        <v>S-J-66</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B68" s="8" t="s">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B68" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-67</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="1"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B69" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B69" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-68</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B70" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B70" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-69</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B71" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B71" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-70</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B72" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-71</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B73" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B73" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-72</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B74" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B74" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-73</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B75" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B75" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-74</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B76" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B76" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-75</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B77" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B77" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-76</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B78" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B78" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-77</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B79" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B79" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-78</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B80" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B80" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-79</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B81" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B81" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-80</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B82" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B82" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-81</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B83" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B83" s="7" t="str">
+        <f ca="1">IF(ISREF(INDIRECT(A83&amp;"!A1")),HYPERLINK("#"&amp;A83&amp;"!A1",LEFT(A83)&amp;"-"&amp;MID(A83,2,1)&amp;"-"&amp;RIGHT(A83,3)),HYPERLINK(,LEFT(A83)&amp;"-"&amp;MID(A83,2,1)&amp;"-"&amp;RIGHT(A83,3)))</f>
+        <v>S-J-82a</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B84" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B84" s="7" t="str">
+        <f t="shared" ref="B84:B90" ca="1" si="2">IF(ISREF(INDIRECT(A84&amp;"!A1")),HYPERLINK("#"&amp;A84&amp;"!A1",LEFT(A84)&amp;"-"&amp;MID(A84,2,1)&amp;"-"&amp;RIGHT(A84,3)),HYPERLINK(,LEFT(A84)&amp;"-"&amp;MID(A84,2,1)&amp;"-"&amp;RIGHT(A84,3)))</f>
+        <v>S-J-82b</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B85" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B85" s="7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>S-J-82c</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B86" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B86" s="7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>S-J-82d</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B87" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B87" s="7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>S-J-83a</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B88" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B88" s="7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>S-J-83b</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B89" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B89" s="7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>S-J-83c</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B90" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B90" s="7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>S-J-83d</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B91" s="8" t="s">
+    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B91" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-84</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B92" s="8" t="s">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B92" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-85</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B93" s="8" t="s">
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B93" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-86</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B94" s="8" t="s">
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B94" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-87</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B95" s="8" t="s">
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B95" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-88</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B96" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B96" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-89</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="B97" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B97" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-90</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B98" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B98" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-91</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B99" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B99" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-92</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B100" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B100" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-93</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B101" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B101" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-94</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B102" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B102" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-95</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B103" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B103" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-96</v>
+      </c>
+      <c r="C103" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B104" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B104" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-97</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B105" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B105" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-98</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B106" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B106" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-99</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B107" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B107" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S-J-00</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>271</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}"/>
+  <autoFilter ref="B1:G1" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}"/>
+  <conditionalFormatting sqref="B2:B108">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISREF(INDIRECT(A2&amp;"!A1"))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/fullspatialerrors_template.xlsx
+++ b/fullspatialerrors_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taf53\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DAD58C-DEE3-4548-8BE6-33E368EE0F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B64B17F-794F-423B-9275-FD6F0510821F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
@@ -1585,7 +1585,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1605,6 +1605,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1682,7 +1689,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4402,7 +4409,7 @@
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/fullspatialerrors_template.xlsx
+++ b/fullspatialerrors_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taf53\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B64B17F-794F-423B-9275-FD6F0510821F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFA5C81-AA37-4C9A-A495-C424CC466161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="513">
   <si>
     <t>Rule</t>
   </si>
@@ -2015,7 +2015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2B6993-24F5-4E36-B923-10E570918712}">
   <dimension ref="A1:GA111"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2893,7 +2895,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>138</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>141</v>
       </c>
@@ -2950,7 +2952,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>144</v>
       </c>
@@ -2959,13 +2961,13 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>147</v>
       </c>
       <c r="B52" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>FACILITY_TYPE,F_SYSTEM,NHS,HPMS_SAMPLE_NO,DIR_THROUGH_LANES,IRI</v>
+        <v>FACILITY_TYPE,F_SYSTEM,NHS,HPMS_SAMPLE_NO,DIR_THROUGH_LANES,IRI,SURFACE_TYPE</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>9</v>
@@ -2985,14 +2987,17 @@
       <c r="H52" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I52" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>SURFACE_TYPE,FACILITY_TYPE,F_SYSTEM,NHS,HPMS_SAMPLE_NO,DIR_THROUGH_LANES,IRI</v>
+        <v>SURFACE_TYPE,FACILITY_TYPE,F_SYSTEM,NHS,HPMS_SAMPLE_NO,DIR_THROUGH_LANES,IRI,RUTTING</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>148</v>
@@ -3015,14 +3020,17 @@
       <c r="I53" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>153</v>
       </c>
       <c r="B54" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>SURFACE_TYPE,FACILITY_TYPE,F_SYSTEM,NHS,HPMS_SAMPLE_NO,DIR_THROUGH_LANES,IRI</v>
+        <v>SURFACE_TYPE,FACILITY_TYPE,F_SYSTEM,NHS,HPMS_SAMPLE_NO,DIR_THROUGH_LANES,IRI,FAULTING</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>148</v>
@@ -3045,14 +3053,17 @@
       <c r="I54" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B55" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>SURFACE_TYPE,FACILITY_TYPE,F_SYSTEM,NHS,HPMS_SAMPLE_NO,DIR_THROUGH_LANES,IRI</v>
+        <v>SURFACE_TYPE,FACILITY_TYPE,F_SYSTEM,NHS,HPMS_SAMPLE_NO,DIR_THROUGH_LANES,IRI,CRACKING_PERCENT</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>148</v>
@@ -3075,14 +3086,17 @@
       <c r="I55" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>159</v>
       </c>
       <c r="B56" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>HPMS_SAMPLE_NO,SURFACE_TYPE,YEAR_LAST_CONSTRUCTION</v>
+        <v>HPMS_SAMPLE_NO,SURFACE_TYPE,YEAR_LAST_CONSTRUCTION_VALUE_DATE,YEAR_LAST_IMPROVEMENT</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>278</v>
@@ -3091,16 +3105,19 @@
         <v>148</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B57" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>HPMS_SAMPLE_NO,SURFACE_TYPE</v>
+        <v>HPMS_SAMPLE_NO,SURFACE_TYPE,YEAR_LAST_CONSTRUCTION</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>278</v>
@@ -3108,14 +3125,17 @@
       <c r="D57" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E57" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>165</v>
       </c>
       <c r="B58" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>HPMS_SAMPLE_NO,YEAR_LAST_IMPROVEMENT</v>
+        <v>HPMS_SAMPLE_NO,YEAR_LAST_IMPROVEMENT,LAST_OVERLAY_THICKNESS</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>278</v>
@@ -3123,14 +3143,17 @@
       <c r="D58" s="7" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E58" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>168</v>
       </c>
       <c r="B59" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>SURFACE_TYPE,HPMS_SAMPLE_NO</v>
+        <v>SURFACE_TYPE,HPMS_SAMPLE_NO,THICKNESS_RIGID</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>148</v>
@@ -3138,14 +3161,17 @@
       <c r="D59" s="7" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E59" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B60" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>SURFACE_TYPE,HPMS_SAMPLE_NO</v>
+        <v>SURFACE_TYPE,HPMS_SAMPLE_NO,THICKNESS_FLEXIBLE</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>148</v>
@@ -3153,14 +3179,17 @@
       <c r="D60" s="7" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E60" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>174</v>
       </c>
       <c r="B61" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>HPMS_SAMPLE_NO,SURFACE_TYPE</v>
+        <v>HPMS_SAMPLE_NO,SURFACE_TYPE,BASE_TYPE</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>278</v>
@@ -3168,14 +3197,17 @@
       <c r="D61" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E61" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B62" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>BASE_TYPE,SURFACE_TYPE,HPMS_SAMPLE_NO</v>
+        <v>BASE_TYPE,SURFACE_TYPE,HPMS_SAMPLE_NO,BASE_THICKNESS</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>175</v>
@@ -3186,8 +3218,11 @@
       <c r="E62" s="7" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F62" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>180</v>
       </c>
@@ -3196,13 +3231,13 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>182</v>
       </c>
       <c r="B64" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>FACILITY_TYPE,F_SYSTEM,URBAN_CODE,NHS</v>
+        <v>FACILITY_TYPE,F_SYSTEM,URBAN_CODE,COUNTY_ID</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>9</v>
@@ -3214,16 +3249,16 @@
         <v>277</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>185</v>
       </c>
       <c r="B65" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>F_SYSTEM,FACILITY_TYPE</v>
+        <v>F_SYSTEM,FACILITY_TYPE,NHS</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>3</v>
@@ -3231,8 +3266,11 @@
       <c r="D65" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E65" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>188</v>
       </c>
@@ -3241,7 +3279,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>190</v>
       </c>
@@ -3250,7 +3288,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>192</v>
       </c>
@@ -3259,13 +3297,13 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>194</v>
       </c>
       <c r="B69" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>F_SYSTEM,FACILITY_TYPE,IRI</v>
+        <v>F_SYSTEM,FACILITY_TYPE,IRI,DIR_THROUGH_LANES</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>3</v>
@@ -3276,26 +3314,32 @@
       <c r="E69" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F69" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>197</v>
       </c>
       <c r="B70" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>FACILITY_TYPE</v>
+        <v>FACILITY_TYPE,THROUGH_LANES</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D70" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>199</v>
       </c>
       <c r="B71" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>COUNTER_PEAK_LANES,PEAK_LANES</v>
+        <v>COUNTER_PEAK_LANES,PEAK_LANES,THROUGH_LANES</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>33</v>
@@ -3303,20 +3347,26 @@
       <c r="D71" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E71" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>201</v>
       </c>
       <c r="B72" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>FACILITY_TYPE</v>
+        <v>FACILITY_TYPE,COUNTER_PEAK_LANES</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D72" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>203</v>
       </c>
@@ -3328,13 +3378,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>205</v>
       </c>
       <c r="B74" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>F_SYSTEM,URBAN_CODE</v>
+        <v>F_SYSTEM,URBAN_CODE,SIGNAL_TYPE</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>3</v>
@@ -3342,8 +3392,11 @@
       <c r="D74" s="7" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E74" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>207</v>
       </c>
@@ -3355,25 +3408,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B76" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>MEDIAN_WIDTH</v>
+        <v>MEDIAN_WIDTH,MEDIAN_TYPE</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D76" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>211</v>
       </c>
       <c r="B77" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>FACILITY_TYPE,MEDIAN_TYPE</v>
+        <v>FACILITY_TYPE,MEDIAN_TYPE,MEDIAN_WIDTH</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>9</v>
@@ -3381,116 +3437,86 @@
       <c r="D77" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E77" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>213</v>
       </c>
       <c r="B78" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>MEDIAN_WIDTH</v>
+        <v>MEDIAN_WIDTH,SHOULDER_WIDTH_L</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D78" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>215</v>
       </c>
       <c r="B79" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>IRI_VALUE_DATE,HPMS_SAMPLE_NO,IRI_VALUE_TEXT,F_SYSTEM,NHS</v>
+        <v>IRI_VALUE_DATE,HPMS_SAMPLE_NO</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="D79" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F79" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>217</v>
       </c>
       <c r="B80" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>RUTTING_VALUE_DATE,HPMS_SAMPLE_NO,RUTTING_VALUE_TEXT,F_SYSTEM,NHS</v>
+        <v>RUTTING_VALUE_DATE,HPMS_SAMPLE_NO</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="D80" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>218</v>
       </c>
       <c r="B81" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>FAULTING_VALUE_DATE,HPMS_SAMPLE_NO,FAULTING_VALUE_TEXT,F_SYSTEM,NHS</v>
+        <v>FAULTING_VALUE_DATE,HPMS_SAMPLE_NO</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="D81" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>219</v>
       </c>
       <c r="B82" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>CRACKING_PERCENT_VALUE_DATE,HPMS_SAMPLE_NO,CRACKING_PERCENT_VALUE_TEXT,F_SYSTEM,NHS</v>
+        <v>CRACKING_PERCENT_VALUE_DATE,HPMS_SAMPLE_NO</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="D82" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F82" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>221</v>
       </c>
@@ -3508,7 +3534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>224</v>
       </c>
@@ -3526,7 +3552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>226</v>
       </c>
@@ -3544,7 +3570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>227</v>
       </c>
@@ -3562,7 +3588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>229</v>
       </c>
@@ -3583,7 +3609,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>231</v>
       </c>
@@ -3604,7 +3630,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>232</v>
       </c>
@@ -3625,7 +3651,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>233</v>
       </c>
@@ -3646,7 +3672,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>234</v>
       </c>
@@ -3655,7 +3681,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>236</v>
       </c>
@@ -3664,7 +3690,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>238</v>
       </c>
@@ -3673,25 +3699,31 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>241</v>
       </c>
       <c r="B94" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>RUTTING</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>243</v>
       </c>
       <c r="B95" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>FAULTING</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>245</v>
       </c>
@@ -3712,10 +3744,13 @@
       </c>
       <c r="B97" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>SURFACE_TYPE</v>
+        <v>SURFACE_TYPE,CRACKING_PERCENT</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>148</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:183" x14ac:dyDescent="0.3">
@@ -3736,10 +3771,13 @@
       </c>
       <c r="B99" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>SURFACE_TYPE</v>
+        <v>SURFACE_TYPE,THICKNESS_RIGID</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>148</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:183" x14ac:dyDescent="0.3">
@@ -3748,10 +3786,13 @@
       </c>
       <c r="B100" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>SURFACE_TYPE</v>
+        <v>SURFACE_TYPE,THICKNESS_FLEXIBLE</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>148</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:183" x14ac:dyDescent="0.3">
@@ -3760,10 +3801,13 @@
       </c>
       <c r="B101" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>SURFACE_TYPE</v>
+        <v>SURFACE_TYPE,THICKNESS_FLEXIBLE</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>148</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:183" x14ac:dyDescent="0.3">
@@ -3772,10 +3816,13 @@
       </c>
       <c r="B102" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>SURFACE_TYPE</v>
+        <v>SURFACE_TYPE,THICKNESS_RIGID</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>148</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:183" x14ac:dyDescent="0.3">
@@ -3784,9 +3831,12 @@
       </c>
       <c r="B103" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>THROUGH_LANES</v>
+        <v>DIR_THROUGH_LANES,THROUGH_LANES</v>
       </c>
       <c r="C103" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3796,10 +3846,7 @@
       </c>
       <c r="B104" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>NHS</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>186</v>
+        <v/>
       </c>
     </row>
     <row r="105" spans="1:183" x14ac:dyDescent="0.3">
@@ -3808,10 +3855,7 @@
       </c>
       <c r="B105" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>OWNERSHIP</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="106" spans="1:183" x14ac:dyDescent="0.3">
@@ -3826,7 +3870,7 @@
       </c>
       <c r="B107" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>FACILITY_TYPE,F_SYSTEM,URBAN_CODE</v>
+        <v>FACILITY_TYPE,F_SYSTEM,URBAN_CODE,HPMS_SAMPLE_NO</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>9</v>
@@ -3836,6 +3880,9 @@
       </c>
       <c r="E107" s="7" t="s">
         <v>277</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:183" x14ac:dyDescent="0.3">
@@ -4395,8 +4442,11 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C2:BL21 C22:F22 H22:BL22 C23:BL107" xr:uid="{83B01C7A-368D-4408-8F6C-876D6B156AF6}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C2:BL21 C22:F22 H22:BL22 U23:BL107 C23:T51" xr:uid="{83B01C7A-368D-4408-8F6C-876D6B156AF6}">
+      <formula1>$111:$111</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C52:T107" xr:uid="{10AE5958-CEE7-4FF9-AC3E-2CBB6F4572BC}">
       <formula1>$111:$111</formula1>
     </dataValidation>
   </dataValidations>
@@ -4409,7 +4459,7 @@
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/fullspatialerrors_template.xlsx
+++ b/fullspatialerrors_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taf53\Documents\GitHub\hpms-validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e122438\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFA5C81-AA37-4C9A-A495-C424CC466161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ADBE48-6428-4540-A3D1-CF6133022B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
   <sheets>
     <sheet name="ruleDataItems" sheetId="3" r:id="rId1"/>
@@ -1617,18 +1617,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1659,13 +1653,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1680,16 +1670,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2015,1955 +1999,1955 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2B6993-24F5-4E36-B923-10E570918712}">
   <dimension ref="A1:GA111"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="31.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="25" width="9.109375" style="7"/>
+    <col min="1" max="1" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="31.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="25" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="str">
+      <c r="B2" s="7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,C2:AG2)</f>
         <v>FACILITY_TYPE,F_SYSTEM</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="str">
+      <c r="B3" s="7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,C3:AG3)</f>
         <v>FACILITY_TYPE,F_SYSTEM,URBAN_CODE,DIR_THROUGH_LANES,IRI</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="str">
+      <c r="B4" s="7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,C4:AG4)</f>
         <v>FACILITY_TYPE,F_SYSTEM</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,C5:AG5)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B6" s="7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,C6:AG6)</f>
         <v>FACILITY_TYPE,F_SYSTEM,HPMS_SAMPLE_NO,NHS,ACCESS_CONTROL</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,C7:N7)</f>
         <v>FACILITY_TYPE,F_SYSTEM,OWNERSHIP</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B8" s="7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,C8:N8)</f>
         <v>FACILITY_TYPE,F_SYSTEM,NHS,URBAN_CODE,THROUGH_LANES</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="7" t="str">
         <f t="shared" ref="B9:B72" si="0">_xlfn.TEXTJOIN(",",TRUE,C9:N9)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="9" t="str">
+      <c r="B11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,PEAK_LANES</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="9" t="str">
+      <c r="B12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,FACILITY_TYPE,URBAN_CODE,THROUGH_LANES,COUNTER_PEAK_LANES</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="9" t="str">
+      <c r="B13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,TURN_LANES_R,URBAN_CODE,ACCESS_CONTROL</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="9" t="str">
+      <c r="B14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,TURN_LANES_L,URBAN_CODE,ACCESS_CONTROL</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="9" t="str">
+      <c r="B15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,NHS,SPEED_LIMIT</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="9" t="str">
+      <c r="B17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>F_SYSTEM,FACILITY_TYPE,ROUTE_SIGNING,ROUTE_NUMBER,DIR_THROUGH_LANES,IRI</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="9" t="str">
+      <c r="B18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>F_SYSTEM,NHS,FACILITY_TYPE,ROUTE_SIGNING</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="9" t="str">
+      <c r="B19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>F_SYSTEM,NHS,FACILITY_TYPE,ROUTE_QUALIFIER</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>F_SYSTEM,NHS,FACILITY_TYPE,ROUTE_NAME</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>F_SYSTEM,NHS,FACILITY_TYPE,ROUTE_NAME_VALUE_TEXT</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="F20" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="9" t="str">
+      <c r="B21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>FACILITY_TYPE,F_SYSTEM,URBAN_CODE,NHS,AADT</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="9" t="str">
+      <c r="B22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,F_SYSTEM,FACILITY_TYPE,AADT_SINGLE_UNIT</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="9" t="str">
+      <c r="B23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,PCT_DH_SINGLE_UNIT</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="9" t="str">
+      <c r="B24" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,F_SYSTEM,FACILITY_TYPE,AADT_COMBINATION</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="9" t="str">
+      <c r="B25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,PCT_DH_COMBINATION</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="9" t="str">
+      <c r="B26" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,K_FACTOR</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="9" t="str">
+      <c r="B27" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,DIR_FACTOR</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="9" t="str">
+      <c r="B28" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,FUTURE_AADT</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="9" t="str">
+      <c r="B29" s="7" t="str">
         <f t="shared" si="0"/>
         <v>URBAN_CODE,NUMBER_SIGNALS,HPMS_SAMPLE_NO,SIGNAL_TYPE</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="9" t="str">
+      <c r="B30" s="7" t="str">
         <f t="shared" si="0"/>
         <v>URBAN_CODE,NUMBER_SIGNALS,HPMS_SAMPLE_NO,PCT_GREEN_TIME</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="9" t="str">
+      <c r="B31" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,NUMBER_SIGNALS,SIGNAL_TYPE</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="9" t="str">
+      <c r="B32" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,STOP_SIGNS</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="9" t="str">
+      <c r="B33" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,AT_GRADE_OTHER</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="9" t="str">
+      <c r="B34" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,LANE_WIDTH</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="9" t="str">
+      <c r="B35" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,MEDIAN_TYPE</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="9" t="str">
+      <c r="B36" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,MEDIAN_TYPE,MEDIAN_WIDTH</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="9" t="str">
+      <c r="B37" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,SHOULDER_TYPE</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="9" t="str">
+      <c r="B38" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,SHOULDER_TYPE,SHOULDER_WIDTH_R</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="9" t="str">
+      <c r="B39" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,SHOULDER_TYPE,SHOULDER_WIDTH_L,MEDIAN_TYPE</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="9" t="str">
+      <c r="B40" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,URBAN_CODE,PEAK_PARKING</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="9" t="str">
+      <c r="B41" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,WIDENING_POTENTIAL</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="10" t="str">
+      <c r="B42" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="9" t="str">
+      <c r="B43" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,F_SYSTEM,URBAN_CODE,SURFACE_TYPE,CURVES_F</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="9" t="str">
+      <c r="B44" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,CURVES_F,F_SYSTEM,URBAN_CODE,BMP,EMP</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="9" t="str">
+      <c r="B45" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,URBAN_CODE,F_SYSTEM,TERRAIN_TYPE</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="10" t="str">
+      <c r="B46" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="9" t="str">
+      <c r="B47" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,F_SYSTEM,URBAN_CODE,SURFACE_TYPE,GRADES_F</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="9" t="str">
+      <c r="B48" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,F_SYSTEM,URBAN_CODE,GRADES_F,BMP,EMP</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B49" s="9" t="str">
+      <c r="B49" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,URBAN_CODE,THROUGH_LANES,MEDIAN_TYPE,SURFACE_TYPE,PCT_PASS_SIGHT</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="9" t="str">
+      <c r="B50" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,SURFACE_TYPE,FACILITY_TYPE,F_SYSTEM,DIR_THROUGH_LANES,URBAN_CODE,IRI</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="10" t="str">
+      <c r="B51" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B52" s="9" t="str">
+      <c r="B52" s="7" t="str">
         <f t="shared" si="0"/>
         <v>FACILITY_TYPE,F_SYSTEM,NHS,HPMS_SAMPLE_NO,DIR_THROUGH_LANES,IRI,SURFACE_TYPE</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="9" t="str">
+      <c r="B53" s="7" t="str">
         <f t="shared" si="0"/>
         <v>SURFACE_TYPE,FACILITY_TYPE,F_SYSTEM,NHS,HPMS_SAMPLE_NO,DIR_THROUGH_LANES,IRI,RUTTING</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="9" t="str">
+      <c r="B54" s="7" t="str">
         <f t="shared" si="0"/>
         <v>SURFACE_TYPE,FACILITY_TYPE,F_SYSTEM,NHS,HPMS_SAMPLE_NO,DIR_THROUGH_LANES,IRI,FAULTING</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J54" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="9" t="str">
+      <c r="B55" s="7" t="str">
         <f t="shared" si="0"/>
         <v>SURFACE_TYPE,FACILITY_TYPE,F_SYSTEM,NHS,HPMS_SAMPLE_NO,DIR_THROUGH_LANES,IRI,CRACKING_PERCENT</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="J55" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="9" t="str">
+      <c r="B56" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,SURFACE_TYPE,YEAR_LAST_CONSTRUCTION_VALUE_DATE,YEAR_LAST_IMPROVEMENT</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B57" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>HPMS_SAMPLE_NO,SURFACE_TYPE,YEAR_LAST_CONSTRUCTION</v>
-      </c>
-      <c r="C57" s="7" t="s">
+      <c r="B57" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>HPMS_SAMPLE_NO,SURFACE_TYPE,YEAR_LAST_CONSTRUCTION_VALUE_DATE</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
+      <c r="E57" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="9" t="str">
+      <c r="B58" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,YEAR_LAST_IMPROVEMENT,LAST_OVERLAY_THICKNESS</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B59" s="9" t="str">
+      <c r="B59" s="7" t="str">
         <f t="shared" si="0"/>
         <v>SURFACE_TYPE,HPMS_SAMPLE_NO,THICKNESS_RIGID</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B60" s="9" t="str">
+      <c r="B60" s="7" t="str">
         <f t="shared" si="0"/>
         <v>SURFACE_TYPE,HPMS_SAMPLE_NO,THICKNESS_FLEXIBLE</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B61" s="9" t="str">
+      <c r="B61" s="7" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,SURFACE_TYPE,BASE_TYPE</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B62" s="9" t="str">
+      <c r="B62" s="7" t="str">
         <f t="shared" si="0"/>
         <v>BASE_TYPE,SURFACE_TYPE,HPMS_SAMPLE_NO,BASE_THICKNESS</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="10" t="str">
+      <c r="B63" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B64" s="9" t="str">
+      <c r="B64" s="7" t="str">
         <f t="shared" si="0"/>
         <v>FACILITY_TYPE,F_SYSTEM,URBAN_CODE,COUNTY_ID</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="9" t="str">
+      <c r="B65" s="7" t="str">
         <f t="shared" si="0"/>
         <v>F_SYSTEM,FACILITY_TYPE,NHS</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B66" s="10" t="str">
+      <c r="B66" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B67" s="10" t="str">
+      <c r="B67" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B68" s="10" t="str">
+      <c r="B68" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B69" s="9" t="str">
+      <c r="B69" s="7" t="str">
         <f t="shared" si="0"/>
         <v>F_SYSTEM,FACILITY_TYPE,IRI,DIR_THROUGH_LANES</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B70" s="9" t="str">
+      <c r="B70" s="7" t="str">
         <f t="shared" si="0"/>
         <v>FACILITY_TYPE,THROUGH_LANES</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B71" s="9" t="str">
+      <c r="B71" s="7" t="str">
         <f t="shared" si="0"/>
         <v>COUNTER_PEAK_LANES,PEAK_LANES,THROUGH_LANES</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B72" s="9" t="str">
+      <c r="B72" s="7" t="str">
         <f t="shared" si="0"/>
         <v>FACILITY_TYPE,COUNTER_PEAK_LANES</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B73" s="9" t="str">
+      <c r="B73" s="7" t="str">
         <f t="shared" ref="B73:B107" si="1">_xlfn.TEXTJOIN(",",TRUE,C73:N73)</f>
         <v>SPEED_LIMIT</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B74" s="9" t="str">
+      <c r="B74" s="7" t="str">
         <f t="shared" si="1"/>
         <v>F_SYSTEM,URBAN_CODE,SIGNAL_TYPE</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B75" s="9" t="str">
+      <c r="B75" s="7" t="str">
         <f t="shared" si="1"/>
         <v>LANE_WIDTH</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B76" s="9" t="str">
+      <c r="B76" s="7" t="str">
         <f t="shared" si="1"/>
         <v>MEDIAN_WIDTH,MEDIAN_TYPE</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B77" s="9" t="str">
+      <c r="B77" s="7" t="str">
         <f t="shared" si="1"/>
         <v>FACILITY_TYPE,MEDIAN_TYPE,MEDIAN_WIDTH</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B78" s="9" t="str">
+      <c r="B78" s="7" t="str">
         <f t="shared" si="1"/>
         <v>MEDIAN_WIDTH,SHOULDER_WIDTH_L</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B79" s="9" t="str">
+      <c r="B79" s="7" t="str">
         <f t="shared" si="1"/>
         <v>IRI_VALUE_DATE,HPMS_SAMPLE_NO</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="9" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B80" s="9" t="str">
+      <c r="B80" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RUTTING_VALUE_DATE,HPMS_SAMPLE_NO</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="9" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B81" s="9" t="str">
+      <c r="B81" s="7" t="str">
         <f t="shared" si="1"/>
         <v>FAULTING_VALUE_DATE,HPMS_SAMPLE_NO</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B82" s="9" t="str">
+      <c r="B82" s="7" t="str">
         <f t="shared" si="1"/>
         <v>CRACKING_PERCENT_VALUE_DATE,HPMS_SAMPLE_NO</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B83" s="9" t="str">
+      <c r="B83" s="7" t="str">
         <f t="shared" si="1"/>
         <v>CRACKING_PERCENT_VALUE_DATE,CRACKING_PERCENT_VALUE_TEXT,F_SYSTEM</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B84" s="9" t="str">
+      <c r="B84" s="7" t="str">
         <f t="shared" si="1"/>
         <v>FAULTING_VALUE_DATE,FAULTING_VALUE_TEXT,F_SYSTEM</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="9" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B85" s="9" t="str">
+      <c r="B85" s="7" t="str">
         <f t="shared" si="1"/>
         <v>IRI_VALUE_DATE,IRI_VALUE_TEXT,F_SYSTEM</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="9" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B86" s="9" t="str">
+      <c r="B86" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RUTTING_VALUE_DATE,RUTTING_VALUE_TEXT,F_SYSTEM</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B87" s="9" t="str">
+      <c r="B87" s="7" t="str">
         <f t="shared" si="1"/>
         <v>CRACKING_PERCENT_VALUE_TEXT,CRACKING_PERCENT_VALUE_DATE,F_SYSTEM,NHS</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G87" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B88" s="9" t="str">
+      <c r="B88" s="7" t="str">
         <f t="shared" si="1"/>
         <v>FAULTING_VALUE_TEXT,FAULTING_VALUE_DATE,F_SYSTEM,NHS</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G88" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B89" s="9" t="str">
+      <c r="B89" s="7" t="str">
         <f t="shared" si="1"/>
         <v>IRI_VALUE_TEXT,IRI_VALUE_DATE,F_SYSTEM,NHS</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="G89" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="9" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B90" s="9" t="str">
+      <c r="B90" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RUTTING_VALUE_TEXT,RUTTING_VALUE_DATE,F_SYSTEM,NHS</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G90" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="10" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B91" s="10" t="str">
+      <c r="B91" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="10" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B92" s="10" t="str">
+      <c r="B92" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B93" s="10" t="str">
+      <c r="B93" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="10" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B94" s="10" t="str">
+      <c r="B94" s="7" t="str">
         <f t="shared" si="1"/>
         <v>RUTTING</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="10" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B95" s="10" t="str">
+      <c r="B95" s="7" t="str">
         <f t="shared" si="1"/>
         <v>FAULTING</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="9" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B96" s="9" t="str">
+      <c r="B96" s="7" t="str">
         <f t="shared" si="1"/>
         <v>SURFACE_TYPE,LANE_WIDTH</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A97" s="9" t="s">
+    <row r="97" spans="1:183" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B97" s="9" t="str">
+      <c r="B97" s="7" t="str">
         <f t="shared" si="1"/>
         <v>SURFACE_TYPE,CRACKING_PERCENT</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="98" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
+    <row r="98" spans="1:183" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B98" s="9" t="str">
+      <c r="B98" s="7" t="str">
         <f t="shared" si="1"/>
         <v>YEAR_LAST_CONSTRUCTION_VALUE_DATE</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="5" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="99" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A99" s="9" t="s">
+    <row r="99" spans="1:183" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B99" s="9" t="str">
+      <c r="B99" s="7" t="str">
         <f t="shared" si="1"/>
         <v>SURFACE_TYPE,THICKNESS_RIGID</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A100" s="9" t="s">
+    <row r="100" spans="1:183" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B100" s="9" t="str">
+      <c r="B100" s="7" t="str">
         <f t="shared" si="1"/>
         <v>SURFACE_TYPE,THICKNESS_FLEXIBLE</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A101" s="9" t="s">
+    <row r="101" spans="1:183" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B101" s="9" t="str">
+      <c r="B101" s="7" t="str">
         <f t="shared" si="1"/>
         <v>SURFACE_TYPE,THICKNESS_FLEXIBLE</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A102" s="9" t="s">
+    <row r="102" spans="1:183" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B102" s="9" t="str">
+      <c r="B102" s="7" t="str">
         <f t="shared" si="1"/>
         <v>SURFACE_TYPE,THICKNESS_RIGID</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A103" s="9" t="s">
+    <row r="103" spans="1:183" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B103" s="9" t="str">
+      <c r="B103" s="7" t="str">
         <f t="shared" si="1"/>
         <v>DIR_THROUGH_LANES,THROUGH_LANES</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A104" s="9" t="s">
+    <row r="104" spans="1:183" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B104" s="9" t="str">
+      <c r="B104" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A105" s="9" t="s">
+    <row r="105" spans="1:183" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B105" s="9" t="str">
+      <c r="B105" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A106" s="10" t="s">
+    <row r="106" spans="1:183" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B106" s="10"/>
-    </row>
-    <row r="107" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A107" s="9" t="s">
+      <c r="B106" s="7"/>
+    </row>
+    <row r="107" spans="1:183" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B107" s="9" t="str">
+      <c r="B107" s="7" t="str">
         <f t="shared" si="1"/>
         <v>FACILITY_TYPE,F_SYSTEM,URBAN_CODE,HPMS_SAMPLE_NO</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="110" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A110" s="7" t="s">
+    <row r="110" spans="1:183" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="111" spans="1:183" x14ac:dyDescent="0.3">
-      <c r="A111" s="7" t="s">
+    <row r="111" spans="1:183" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="G111" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H111" s="7" t="s">
+      <c r="H111" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="I111" s="7" t="s">
+      <c r="I111" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="J111" s="7" t="s">
+      <c r="J111" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K111" s="7" t="s">
+      <c r="K111" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="L111" s="7" t="s">
+      <c r="L111" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="M111" s="7" t="s">
+      <c r="M111" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N111" s="7" t="s">
+      <c r="N111" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="O111" s="7" t="s">
+      <c r="O111" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="P111" s="7" t="s">
+      <c r="P111" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q111" s="7" t="s">
+      <c r="Q111" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="R111" s="7" t="s">
+      <c r="R111" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="S111" s="7" t="s">
+      <c r="S111" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="T111" s="7" t="s">
+      <c r="T111" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="U111" s="7" t="s">
+      <c r="U111" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="V111" s="7" t="s">
+      <c r="V111" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="W111" s="7" t="s">
+      <c r="W111" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="X111" s="7" t="s">
+      <c r="X111" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="Y111" s="7" t="s">
+      <c r="Y111" s="5" t="s">
         <v>116</v>
       </c>
       <c r="Z111" t="s">
@@ -4459,1671 +4443,1619 @@
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="7" t="str">
+      <c r="B2" s="5" t="str">
         <f ca="1">IF(ISREF(INDIRECT(A2&amp;"!A1")),HYPERLINK("#"&amp;A2&amp;"!A1",LEFT(A2)&amp;"-"&amp;MID(A2,2,1)&amp;"-"&amp;RIGHT(A2,2)),HYPERLINK(,LEFT(A2)&amp;"-"&amp;MID(A2,2,1)&amp;"-"&amp;RIGHT(A2,2)))</f>
         <v>S-J-01</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B3" s="7" t="str">
+      <c r="B3" s="5" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">IF(ISREF(INDIRECT(A3&amp;"!A1")),HYPERLINK("#"&amp;A3&amp;"!A1",LEFT(A3)&amp;"-"&amp;MID(A3,2,1)&amp;"-"&amp;RIGHT(A3,2)),HYPERLINK(,LEFT(A3)&amp;"-"&amp;MID(A3,2,1)&amp;"-"&amp;RIGHT(A3,2)))</f>
         <v>S-J-02</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B4" s="7" t="str">
+      <c r="B4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-03</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-04</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B6" s="7" t="str">
+      <c r="B6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-05</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B7" s="7" t="str">
+      <c r="B7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-06</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-07</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-08</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B10" s="7" t="str">
+      <c r="B10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-09</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B11" s="7" t="str">
+      <c r="B11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-10</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B12" s="7" t="str">
+      <c r="B12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-11</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B13" s="7" t="str">
+      <c r="B13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-12</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B14" s="7" t="str">
+      <c r="B14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-13</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B15" s="7" t="str">
+      <c r="B15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-14</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B16" s="7" t="str">
+      <c r="B16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-15</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B17" s="7" t="str">
+      <c r="B17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-16</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B18" s="7" t="str">
+      <c r="B18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-17</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B19" s="7" t="str">
+      <c r="B19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-18</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B20" s="7" t="str">
+      <c r="B20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-19</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B21" s="7" t="str">
+      <c r="B21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-20</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B22" s="7" t="str">
+      <c r="B22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-21</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B23" s="7" t="str">
+      <c r="B23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-22</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B24" s="7" t="str">
+      <c r="B24" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-23</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B25" s="7" t="str">
+      <c r="B25" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-24</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B26" s="7" t="str">
+      <c r="B26" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-25</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B27" s="7" t="str">
+      <c r="B27" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-26</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B28" s="7" t="str">
+      <c r="B28" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-27</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B29" s="7" t="str">
+      <c r="B29" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-28</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B30" s="7" t="str">
+      <c r="B30" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-29</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B31" s="7" t="str">
+      <c r="B31" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-30</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B32" s="7" t="str">
+      <c r="B32" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-31</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B33" s="7" t="str">
+      <c r="B33" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-32</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B34" s="7" t="str">
+      <c r="B34" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-33</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B35" s="7" t="str">
+      <c r="B35" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-34</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B36" s="7" t="str">
+      <c r="B36" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-35</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B37" s="7" t="str">
+      <c r="B37" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-36</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B38" s="7" t="str">
+      <c r="B38" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-37</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B39" s="7" t="str">
+      <c r="B39" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-38</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B40" s="7" t="str">
+      <c r="B40" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-39</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B41" s="7" t="str">
+      <c r="B41" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-40</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B42" s="7" t="str">
+      <c r="B42" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-41</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B43" s="7" t="str">
+      <c r="B43" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-42</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="B44" s="7" t="str">
+      <c r="B44" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-43</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B45" s="7" t="str">
+      <c r="B45" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-44</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B46" s="7" t="str">
+      <c r="B46" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-45</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B47" s="7" t="str">
+      <c r="B47" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-46</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B48" s="7" t="str">
+      <c r="B48" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-47</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B49" s="7" t="str">
+      <c r="B49" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-48</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="B50" s="7" t="str">
+      <c r="B50" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-49</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B51" s="7" t="str">
+      <c r="B51" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-50</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+    </row>
+    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B52" s="7" t="str">
+      <c r="B52" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-51</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B53" s="7" t="str">
+      <c r="B53" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-52</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="B54" s="7" t="str">
+      <c r="B54" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-53</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="B55" s="7" t="str">
+      <c r="B55" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-54</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B56" s="7" t="str">
+      <c r="B56" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-55</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B57" s="7" t="str">
+      <c r="B57" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-56</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B58" s="7" t="str">
+      <c r="B58" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-57</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B59" s="7" t="str">
+      <c r="B59" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-58</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="B60" s="7" t="str">
+      <c r="B60" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-59</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B61" s="7" t="str">
+      <c r="B61" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-60</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B62" s="7" t="str">
+      <c r="B62" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-61</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B63" s="7" t="str">
+      <c r="B63" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-62</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="B64" s="7" t="str">
+      <c r="B64" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-63</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B65" s="7" t="str">
+      <c r="B65" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-64</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B66" s="7" t="str">
+      <c r="B66" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S-J-65</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B67" s="7" t="str">
+      <c r="B67" s="5" t="str">
         <f t="shared" ref="B67:B107" ca="1" si="1">IF(ISREF(INDIRECT(A67&amp;"!A1")),HYPERLINK("#"&amp;A67&amp;"!A1",LEFT(A67)&amp;"-"&amp;MID(A67,2,1)&amp;"-"&amp;RIGHT(A67,2)),HYPERLINK(,LEFT(A67)&amp;"-"&amp;MID(A67,2,1)&amp;"-"&amp;RIGHT(A67,2)))</f>
         <v>S-J-66</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B68" s="7" t="str">
+      <c r="B68" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-67</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B69" s="7" t="str">
+      <c r="B69" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-68</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B70" s="7" t="str">
+      <c r="B70" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-69</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B71" s="7" t="str">
+      <c r="B71" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-70</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B72" s="7" t="str">
+      <c r="B72" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-71</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B73" s="7" t="str">
+      <c r="B73" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-72</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="B74" s="7" t="str">
+      <c r="B74" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-73</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B75" s="7" t="str">
+      <c r="B75" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-74</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B76" s="7" t="str">
+      <c r="B76" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-75</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B77" s="7" t="str">
+      <c r="B77" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-76</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B78" s="7" t="str">
+      <c r="B78" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-77</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B79" s="7" t="str">
+      <c r="B79" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-78</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B80" s="7" t="str">
+      <c r="B80" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-79</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B81" s="7" t="str">
+      <c r="B81" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-80</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
+    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B82" s="7" t="str">
+      <c r="B82" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-81</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="7" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="B83" s="7" t="str">
+      <c r="B83" s="5" t="str">
         <f ca="1">IF(ISREF(INDIRECT(A83&amp;"!A1")),HYPERLINK("#"&amp;A83&amp;"!A1",LEFT(A83)&amp;"-"&amp;MID(A83,2,1)&amp;"-"&amp;RIGHT(A83,3)),HYPERLINK(,LEFT(A83)&amp;"-"&amp;MID(A83,2,1)&amp;"-"&amp;RIGHT(A83,3)))</f>
         <v>S-J-82a</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="7" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="B84" s="7" t="str">
+      <c r="B84" s="5" t="str">
         <f t="shared" ref="B84:B90" ca="1" si="2">IF(ISREF(INDIRECT(A84&amp;"!A1")),HYPERLINK("#"&amp;A84&amp;"!A1",LEFT(A84)&amp;"-"&amp;MID(A84,2,1)&amp;"-"&amp;RIGHT(A84,3)),HYPERLINK(,LEFT(A84)&amp;"-"&amp;MID(A84,2,1)&amp;"-"&amp;RIGHT(A84,3)))</f>
         <v>S-J-82b</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B85" s="7" t="str">
+      <c r="B85" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>S-J-82c</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="7" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B86" s="7" t="str">
+      <c r="B86" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>S-J-82d</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="B87" s="7" t="str">
+      <c r="B87" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>S-J-83a</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B88" s="7" t="str">
+      <c r="B88" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>S-J-83b</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="7" t="s">
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B89" s="7" t="str">
+      <c r="B89" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>S-J-83c</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B90" s="7" t="str">
+      <c r="B90" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>S-J-83d</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="s">
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B91" s="7" t="str">
+      <c r="B91" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-84</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="7" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="B92" s="7" t="str">
+      <c r="B92" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-85</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="s">
+    </row>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B93" s="7" t="str">
+      <c r="B93" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-86</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="7" t="s">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="B94" s="7" t="str">
+      <c r="B94" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-87</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="s">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B95" s="7" t="str">
+      <c r="B95" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-88</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="7" t="s">
+    </row>
+    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B96" s="7" t="str">
+      <c r="B96" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-89</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B97" s="7" t="str">
+      <c r="B97" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-90</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="B98" s="7" t="str">
+      <c r="B98" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-91</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B99" s="7" t="str">
+      <c r="B99" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-92</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="B100" s="7" t="str">
+      <c r="B100" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-93</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="B101" s="7" t="str">
+      <c r="B101" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-94</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="7" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="B102" s="7" t="str">
+      <c r="B102" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-95</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="7" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="B103" s="7" t="str">
+      <c r="B103" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-96</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="B104" s="7" t="str">
+      <c r="B104" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-97</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="B105" s="7" t="str">
+      <c r="B105" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-98</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="7" t="s">
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="B106" s="7" t="str">
+      <c r="B106" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-99</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="7" t="s">
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="B107" s="7" t="str">
+      <c r="B107" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>S-J-00</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="1" t="s">
         <v>271</v>
       </c>
     </row>

--- a/fullspatialerrors_template.xlsx
+++ b/fullspatialerrors_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e122438\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ADBE48-6428-4540-A3D1-CF6133022B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6E5C3C-2F60-4972-8D24-45A76DCA024C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="513">
   <si>
     <t>Rule</t>
   </si>
@@ -1999,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2B6993-24F5-4E36-B923-10E570918712}">
   <dimension ref="A1:GA111"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3839,7 +3839,13 @@
       </c>
       <c r="B105" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>OWNERSHIP,MAINTENANCE_OPERATIONS</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:183" x14ac:dyDescent="0.25">

--- a/fullspatialerrors_template.xlsx
+++ b/fullspatialerrors_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e122438\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6E5C3C-2F60-4972-8D24-45A76DCA024C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE00325-6798-410F-ADFF-48E3A4BB4354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
@@ -1999,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2B6993-24F5-4E36-B923-10E570918712}">
   <dimension ref="A1:GA111"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="B56" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>HPMS_SAMPLE_NO,SURFACE_TYPE,YEAR_LAST_CONSTRUCTION_VALUE_DATE,YEAR_LAST_IMPROVEMENT</v>
+        <v>HPMS_SAMPLE_NO,SURFACE_TYPE,YEAR_LAST_CONSTRUCTION_VALUE_DATE,YEAR_LAST_IMPROVEMENT_VALUE_DATE</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>278</v>
@@ -3092,7 +3092,7 @@
         <v>390</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>160</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3119,13 +3119,13 @@
       </c>
       <c r="B58" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>HPMS_SAMPLE_NO,YEAR_LAST_IMPROVEMENT,LAST_OVERLAY_THICKNESS</v>
+        <v>HPMS_SAMPLE_NO,YEAR_LAST_IMPROVEMENT_VALUE_DATE,LAST_OVERLAY_THICKNESS</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>278</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>160</v>
+        <v>398</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>166</v>

--- a/fullspatialerrors_template.xlsx
+++ b/fullspatialerrors_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e122438\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE00325-6798-410F-ADFF-48E3A4BB4354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54998E6D-0780-4A8D-942D-A214CC277811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
   <sheets>
     <sheet name="ruleDataItems" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="513">
   <si>
     <t>Rule</t>
   </si>
@@ -1999,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2B6993-24F5-4E36-B923-10E570918712}">
   <dimension ref="A1:GA111"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,7 +2588,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>94</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>97</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>100</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>103</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>106</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>109</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>112</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>115</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>118</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>121</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>124</v>
       </c>
@@ -2771,13 +2771,13 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B44" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>HPMS_SAMPLE_NO,CURVES_F,F_SYSTEM,URBAN_CODE,BMP,EMP</v>
+        <v>HPMS_SAMPLE_NO,CURVES_F</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>278</v>
@@ -2785,20 +2785,8 @@
       <c r="D44" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>128</v>
       </c>
@@ -2819,7 +2807,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>131</v>
       </c>
@@ -2828,7 +2816,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>134</v>
       </c>
@@ -2852,31 +2840,19 @@
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B48" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>HPMS_SAMPLE_NO,F_SYSTEM,URBAN_CODE,GRADES_F,BMP,EMP</v>
+        <v>HPMS_SAMPLE_NO,GRADES_F</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>278</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F48" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3470,7 +3446,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>218</v>
       </c>
@@ -3485,7 +3461,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>219</v>
       </c>
@@ -3500,7 +3476,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>221</v>
       </c>
@@ -3511,14 +3487,14 @@
       <c r="C83" s="5" t="s">
         <v>382</v>
       </c>
+      <c r="D83" s="5" t="s">
+        <v>383</v>
+      </c>
       <c r="E83" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="F83" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>224</v>
       </c>
@@ -3529,14 +3505,14 @@
       <c r="C84" s="5" t="s">
         <v>384</v>
       </c>
+      <c r="D84" s="5" t="s">
+        <v>385</v>
+      </c>
       <c r="E84" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="F84" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>226</v>
       </c>
@@ -3547,14 +3523,14 @@
       <c r="C85" s="5" t="s">
         <v>380</v>
       </c>
+      <c r="D85" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="E85" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F85" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>227</v>
       </c>
@@ -3565,14 +3541,14 @@
       <c r="C86" s="5" t="s">
         <v>386</v>
       </c>
+      <c r="D86" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="E86" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="F86" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>229</v>
       </c>
@@ -3586,14 +3562,14 @@
       <c r="D87" s="5" t="s">
         <v>382</v>
       </c>
+      <c r="E87" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="F87" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G87" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>231</v>
       </c>
@@ -3607,14 +3583,14 @@
       <c r="D88" s="5" t="s">
         <v>384</v>
       </c>
+      <c r="E88" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="F88" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G88" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>232</v>
       </c>
@@ -3628,14 +3604,14 @@
       <c r="D89" s="5" t="s">
         <v>380</v>
       </c>
+      <c r="E89" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="F89" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>233</v>
       </c>
@@ -3649,14 +3625,14 @@
       <c r="D90" s="5" t="s">
         <v>386</v>
       </c>
+      <c r="E90" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="F90" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G90" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>234</v>
       </c>
@@ -3665,7 +3641,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>236</v>
       </c>
@@ -3674,7 +3650,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>238</v>
       </c>
@@ -3683,7 +3659,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>241</v>
       </c>
@@ -3695,7 +3671,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>243</v>
       </c>
@@ -3707,7 +3683,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>245</v>
       </c>

--- a/fullspatialerrors_template.xlsx
+++ b/fullspatialerrors_template.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e122438\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54998E6D-0780-4A8D-942D-A214CC277811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753D80E5-2A11-4275-9374-F20163507AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
   <sheets>
     <sheet name="ruleDataItems" sheetId="3" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Summary!$B$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Summary!$A$1:$G$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -6042,7 +6042,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G1" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}"/>
+  <autoFilter ref="A1:G107" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}"/>
   <conditionalFormatting sqref="B2:B108">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>ISREF(INDIRECT(A2&amp;"!A1"))</formula>

--- a/fullspatialerrors_template.xlsx
+++ b/fullspatialerrors_template.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e122438\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753D80E5-2A11-4275-9374-F20163507AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F813A0A7-7F77-4549-9DE6-3A1CD7B69E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
   <sheets>
     <sheet name="ruleDataItems" sheetId="3" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Summary!$A$1:$G$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Summary!$A$1:$H$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="524">
   <si>
     <t>Rule</t>
   </si>
@@ -1579,6 +1579,39 @@
   </si>
   <si>
     <t>SJF100</t>
+  </si>
+  <si>
+    <t>FWHA Num Failed</t>
+  </si>
+  <si>
+    <t>CURVES_A</t>
+  </si>
+  <si>
+    <t>CURVES_B</t>
+  </si>
+  <si>
+    <t>CURVES_C</t>
+  </si>
+  <si>
+    <t>CURVES_D</t>
+  </si>
+  <si>
+    <t>CURVES_E</t>
+  </si>
+  <si>
+    <t>GRADES_A</t>
+  </si>
+  <si>
+    <t>GRADES_B</t>
+  </si>
+  <si>
+    <t>GRADES_C</t>
+  </si>
+  <si>
+    <t>GRADES_D</t>
+  </si>
+  <si>
+    <t>GRADES_E</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1644,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1625,7 +1657,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1648,12 +1680,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1670,9 +1713,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1997,10 +2046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2B6993-24F5-4E36-B923-10E570918712}">
-  <dimension ref="A1:GA111"/>
+  <dimension ref="A1:GK111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,10 +2077,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="str">
+      <c r="B2" s="6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,C2:AG2)</f>
         <v>FACILITY_TYPE,F_SYSTEM</v>
       </c>
@@ -2043,10 +2092,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="str">
+      <c r="B3" s="6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,C3:AG3)</f>
         <v>FACILITY_TYPE,F_SYSTEM,URBAN_CODE,DIR_THROUGH_LANES,IRI</v>
       </c>
@@ -2067,10 +2116,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="str">
+      <c r="B4" s="6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,C4:AG4)</f>
         <v>FACILITY_TYPE,F_SYSTEM</v>
       </c>
@@ -2082,19 +2131,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,C5:AG5)</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="str">
+      <c r="B6" s="6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,C6:AG6)</f>
         <v>FACILITY_TYPE,F_SYSTEM,HPMS_SAMPLE_NO,NHS,ACCESS_CONTROL</v>
       </c>
@@ -2115,10 +2164,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="str">
+      <c r="B7" s="6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,C7:N7)</f>
         <v>FACILITY_TYPE,F_SYSTEM,OWNERSHIP</v>
       </c>
@@ -2133,10 +2182,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,C8:N8)</f>
         <v>FACILITY_TYPE,F_SYSTEM,NHS,URBAN_CODE,THROUGH_LANES</v>
       </c>
@@ -2157,28 +2206,28 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="6" t="str">
         <f t="shared" ref="B9:B72" si="0">_xlfn.TEXTJOIN(",",TRUE,C9:N9)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7" t="str">
+      <c r="B10" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7" t="str">
+      <c r="B11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,PEAK_LANES</v>
       </c>
@@ -2190,10 +2239,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="7" t="str">
+      <c r="B12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,FACILITY_TYPE,URBAN_CODE,THROUGH_LANES,COUNTER_PEAK_LANES</v>
       </c>
@@ -2214,10 +2263,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="7" t="str">
+      <c r="B13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,TURN_LANES_R,URBAN_CODE,ACCESS_CONTROL</v>
       </c>
@@ -2235,10 +2284,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="7" t="str">
+      <c r="B14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,TURN_LANES_L,URBAN_CODE,ACCESS_CONTROL</v>
       </c>
@@ -2256,10 +2305,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="7" t="str">
+      <c r="B15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,NHS,SPEED_LIMIT</v>
       </c>
@@ -2274,19 +2323,19 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="7" t="str">
+      <c r="B16" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="7" t="str">
+      <c r="B17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>F_SYSTEM,FACILITY_TYPE,ROUTE_SIGNING,ROUTE_NUMBER,DIR_THROUGH_LANES,IRI</v>
       </c>
@@ -2310,10 +2359,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="7" t="str">
+      <c r="B18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>F_SYSTEM,NHS,FACILITY_TYPE,ROUTE_SIGNING</v>
       </c>
@@ -2331,10 +2380,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="7" t="str">
+      <c r="B19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>F_SYSTEM,NHS,FACILITY_TYPE,ROUTE_QUALIFIER</v>
       </c>
@@ -2352,10 +2401,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="7" t="str">
+      <c r="B20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>F_SYSTEM,NHS,FACILITY_TYPE,ROUTE_NAME_VALUE_TEXT</v>
       </c>
@@ -2373,10 +2422,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="7" t="str">
+      <c r="B21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>FACILITY_TYPE,F_SYSTEM,URBAN_CODE,NHS,AADT</v>
       </c>
@@ -2397,10 +2446,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="7" t="str">
+      <c r="B22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,F_SYSTEM,FACILITY_TYPE,AADT_SINGLE_UNIT</v>
       </c>
@@ -2418,10 +2467,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="7" t="str">
+      <c r="B23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,PCT_DH_SINGLE_UNIT</v>
       </c>
@@ -2433,10 +2482,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="7" t="str">
+      <c r="B24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,F_SYSTEM,FACILITY_TYPE,AADT_COMBINATION</v>
       </c>
@@ -2454,10 +2503,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="7" t="str">
+      <c r="B25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,PCT_DH_COMBINATION</v>
       </c>
@@ -2469,10 +2518,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="7" t="str">
+      <c r="B26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,K_FACTOR</v>
       </c>
@@ -2484,10 +2533,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="7" t="str">
+      <c r="B27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,DIR_FACTOR</v>
       </c>
@@ -2499,10 +2548,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="7" t="str">
+      <c r="B28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,FUTURE_AADT</v>
       </c>
@@ -2514,10 +2563,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="7" t="str">
+      <c r="B29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>URBAN_CODE,NUMBER_SIGNALS,HPMS_SAMPLE_NO,SIGNAL_TYPE</v>
       </c>
@@ -2535,10 +2584,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="7" t="str">
+      <c r="B30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>URBAN_CODE,NUMBER_SIGNALS,HPMS_SAMPLE_NO,PCT_GREEN_TIME</v>
       </c>
@@ -2556,10 +2605,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="7" t="str">
+      <c r="B31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,NUMBER_SIGNALS,SIGNAL_TYPE</v>
       </c>
@@ -2574,10 +2623,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="7" t="str">
+      <c r="B32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,STOP_SIGNS</v>
       </c>
@@ -2588,11 +2637,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="7" t="str">
+      <c r="B33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,AT_GRADE_OTHER</v>
       </c>
@@ -2603,11 +2652,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="7" t="str">
+      <c r="B34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,LANE_WIDTH</v>
       </c>
@@ -2618,11 +2667,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="7" t="str">
+      <c r="B35" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,MEDIAN_TYPE</v>
       </c>
@@ -2633,11 +2682,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="7" t="str">
+      <c r="B36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,MEDIAN_TYPE,MEDIAN_WIDTH</v>
       </c>
@@ -2651,11 +2700,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="7" t="str">
+      <c r="B37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,SHOULDER_TYPE</v>
       </c>
@@ -2666,11 +2715,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="7" t="str">
+      <c r="B38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,SHOULDER_TYPE,SHOULDER_WIDTH_R</v>
       </c>
@@ -2684,11 +2733,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="7" t="str">
+      <c r="B39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,SHOULDER_TYPE,SHOULDER_WIDTH_L,MEDIAN_TYPE</v>
       </c>
@@ -2705,11 +2754,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="7" t="str">
+      <c r="B40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,URBAN_CODE,PEAK_PARKING</v>
       </c>
@@ -2723,11 +2772,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="7" t="str">
+      <c r="B41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,WIDENING_POTENTIAL</v>
       </c>
@@ -2738,22 +2787,22 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="7" t="str">
+      <c r="B42" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="7" t="str">
+      <c r="B43" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>HPMS_SAMPLE_NO,F_SYSTEM,URBAN_CODE,SURFACE_TYPE,CURVES_F</v>
+        <v>HPMS_SAMPLE_NO,F_SYSTEM,URBAN_CODE,SURFACE_TYPE,CURVES_A,CURVES_B,CURVES_C,CURVES_D,CURVES_E,CURVES_F</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>278</v>
@@ -2768,29 +2817,65 @@
         <v>148</v>
       </c>
       <c r="G43" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="L43" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="7" t="str">
+      <c r="B44" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>HPMS_SAMPLE_NO,CURVES_F</v>
+        <v>HPMS_SAMPLE_NO,F_SYSTEM,URBAN_CODE,CURVES_A,CURVES_B,CURVES_C,CURVES_D,CURVES_E,CURVES_F</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>278</v>
       </c>
       <c r="D44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="K44" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="7" t="str">
+      <c r="B45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,URBAN_CODE,F_SYSTEM,TERRAIN_TYPE</v>
       </c>
@@ -2807,22 +2892,22 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="7" t="str">
+      <c r="B46" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="7" t="str">
+      <c r="B47" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>HPMS_SAMPLE_NO,F_SYSTEM,URBAN_CODE,SURFACE_TYPE,GRADES_F</v>
+        <v>HPMS_SAMPLE_NO,F_SYSTEM,URBAN_CODE,SURFACE_TYPE,GRADES_A,GRADES_B,GRADES_C,GRADES_D,GRADES_E,GRADES_F</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>278</v>
@@ -2836,30 +2921,60 @@
       <c r="F47" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="L47" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="7" t="str">
+      <c r="B48" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>HPMS_SAMPLE_NO,GRADES_F</v>
+        <v>HPMS_SAMPLE_NO,GRADES_A,GRADES_B,GRADES_C,GRADES_D,GRADES_E,GRADES_F</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B49" s="7" t="str">
+      <c r="B49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,URBAN_CODE,THROUGH_LANES,MEDIAN_TYPE,SURFACE_TYPE,PCT_PASS_SIGHT</v>
       </c>
@@ -2883,10 +2998,10 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="7" t="str">
+      <c r="B50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,SURFACE_TYPE,FACILITY_TYPE,F_SYSTEM,DIR_THROUGH_LANES,URBAN_CODE,IRI</v>
       </c>
@@ -2913,19 +3028,19 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="7" t="str">
+      <c r="B51" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B52" s="7" t="str">
+      <c r="B52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>FACILITY_TYPE,F_SYSTEM,NHS,HPMS_SAMPLE_NO,DIR_THROUGH_LANES,IRI,SURFACE_TYPE</v>
       </c>
@@ -2952,10 +3067,10 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="7" t="str">
+      <c r="B53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SURFACE_TYPE,FACILITY_TYPE,F_SYSTEM,NHS,HPMS_SAMPLE_NO,DIR_THROUGH_LANES,IRI,RUTTING</v>
       </c>
@@ -2985,10 +3100,10 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="7" t="str">
+      <c r="B54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SURFACE_TYPE,FACILITY_TYPE,F_SYSTEM,NHS,HPMS_SAMPLE_NO,DIR_THROUGH_LANES,IRI,FAULTING</v>
       </c>
@@ -3018,10 +3133,10 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="7" t="str">
+      <c r="B55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SURFACE_TYPE,FACILITY_TYPE,F_SYSTEM,NHS,HPMS_SAMPLE_NO,DIR_THROUGH_LANES,IRI,CRACKING_PERCENT</v>
       </c>
@@ -3051,10 +3166,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="7" t="str">
+      <c r="B56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,SURFACE_TYPE,YEAR_LAST_CONSTRUCTION_VALUE_DATE,YEAR_LAST_IMPROVEMENT_VALUE_DATE</v>
       </c>
@@ -3072,10 +3187,10 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B57" s="7" t="str">
+      <c r="B57" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,SURFACE_TYPE,YEAR_LAST_CONSTRUCTION_VALUE_DATE</v>
       </c>
@@ -3090,10 +3205,10 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="7" t="str">
+      <c r="B58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,YEAR_LAST_IMPROVEMENT_VALUE_DATE,LAST_OVERLAY_THICKNESS</v>
       </c>
@@ -3108,10 +3223,10 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B59" s="7" t="str">
+      <c r="B59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SURFACE_TYPE,HPMS_SAMPLE_NO,THICKNESS_RIGID</v>
       </c>
@@ -3126,10 +3241,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B60" s="7" t="str">
+      <c r="B60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SURFACE_TYPE,HPMS_SAMPLE_NO,THICKNESS_FLEXIBLE</v>
       </c>
@@ -3144,10 +3259,10 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B61" s="7" t="str">
+      <c r="B61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>HPMS_SAMPLE_NO,SURFACE_TYPE,BASE_TYPE</v>
       </c>
@@ -3162,10 +3277,10 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B62" s="7" t="str">
+      <c r="B62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>BASE_TYPE,SURFACE_TYPE,HPMS_SAMPLE_NO,BASE_THICKNESS</v>
       </c>
@@ -3183,19 +3298,19 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="7" t="str">
+      <c r="B63" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B64" s="7" t="str">
+      <c r="B64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>FACILITY_TYPE,F_SYSTEM,URBAN_CODE,COUNTY_ID</v>
       </c>
@@ -3213,10 +3328,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="7" t="str">
+      <c r="B65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>F_SYSTEM,FACILITY_TYPE,NHS</v>
       </c>
@@ -3231,37 +3346,37 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B66" s="7" t="str">
+      <c r="B66" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B67" s="7" t="str">
+      <c r="B67" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B68" s="7" t="str">
+      <c r="B68" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B69" s="7" t="str">
+      <c r="B69" s="6" t="str">
         <f t="shared" si="0"/>
         <v>F_SYSTEM,FACILITY_TYPE,IRI,DIR_THROUGH_LANES</v>
       </c>
@@ -3279,10 +3394,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B70" s="7" t="str">
+      <c r="B70" s="6" t="str">
         <f t="shared" si="0"/>
         <v>FACILITY_TYPE,THROUGH_LANES</v>
       </c>
@@ -3294,10 +3409,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B71" s="7" t="str">
+      <c r="B71" s="6" t="str">
         <f t="shared" si="0"/>
         <v>COUNTER_PEAK_LANES,PEAK_LANES,THROUGH_LANES</v>
       </c>
@@ -3312,10 +3427,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B72" s="7" t="str">
+      <c r="B72" s="6" t="str">
         <f t="shared" si="0"/>
         <v>FACILITY_TYPE,COUNTER_PEAK_LANES</v>
       </c>
@@ -3327,10 +3442,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B73" s="7" t="str">
+      <c r="B73" s="6" t="str">
         <f t="shared" ref="B73:B107" si="1">_xlfn.TEXTJOIN(",",TRUE,C73:N73)</f>
         <v>SPEED_LIMIT</v>
       </c>
@@ -3339,10 +3454,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B74" s="7" t="str">
+      <c r="B74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>F_SYSTEM,URBAN_CODE,SIGNAL_TYPE</v>
       </c>
@@ -3357,10 +3472,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B75" s="7" t="str">
+      <c r="B75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>LANE_WIDTH</v>
       </c>
@@ -3369,10 +3484,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B76" s="7" t="str">
+      <c r="B76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>MEDIAN_WIDTH,MEDIAN_TYPE</v>
       </c>
@@ -3384,10 +3499,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B77" s="7" t="str">
+      <c r="B77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>FACILITY_TYPE,MEDIAN_TYPE,MEDIAN_WIDTH</v>
       </c>
@@ -3402,10 +3517,10 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B78" s="7" t="str">
+      <c r="B78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>MEDIAN_WIDTH,SHOULDER_WIDTH_L</v>
       </c>
@@ -3417,10 +3532,10 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B79" s="7" t="str">
+      <c r="B79" s="6" t="str">
         <f t="shared" si="1"/>
         <v>IRI_VALUE_DATE,HPMS_SAMPLE_NO</v>
       </c>
@@ -3432,10 +3547,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B80" s="7" t="str">
+      <c r="B80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>RUTTING_VALUE_DATE,HPMS_SAMPLE_NO</v>
       </c>
@@ -3447,10 +3562,10 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B81" s="7" t="str">
+      <c r="B81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>FAULTING_VALUE_DATE,HPMS_SAMPLE_NO</v>
       </c>
@@ -3462,10 +3577,10 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B82" s="7" t="str">
+      <c r="B82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>CRACKING_PERCENT_VALUE_DATE,HPMS_SAMPLE_NO</v>
       </c>
@@ -3477,10 +3592,10 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B83" s="7" t="str">
+      <c r="B83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>CRACKING_PERCENT_VALUE_DATE,CRACKING_PERCENT_VALUE_TEXT,F_SYSTEM</v>
       </c>
@@ -3495,10 +3610,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B84" s="7" t="str">
+      <c r="B84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>FAULTING_VALUE_DATE,FAULTING_VALUE_TEXT,F_SYSTEM</v>
       </c>
@@ -3513,10 +3628,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B85" s="7" t="str">
+      <c r="B85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>IRI_VALUE_DATE,IRI_VALUE_TEXT,F_SYSTEM</v>
       </c>
@@ -3531,10 +3646,10 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B86" s="7" t="str">
+      <c r="B86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>RUTTING_VALUE_DATE,RUTTING_VALUE_TEXT,F_SYSTEM</v>
       </c>
@@ -3549,10 +3664,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B87" s="7" t="str">
+      <c r="B87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>CRACKING_PERCENT_VALUE_TEXT,CRACKING_PERCENT_VALUE_DATE,F_SYSTEM,NHS</v>
       </c>
@@ -3570,10 +3685,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B88" s="7" t="str">
+      <c r="B88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>FAULTING_VALUE_TEXT,FAULTING_VALUE_DATE,F_SYSTEM,NHS</v>
       </c>
@@ -3591,10 +3706,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B89" s="7" t="str">
+      <c r="B89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>IRI_VALUE_TEXT,IRI_VALUE_DATE,F_SYSTEM,NHS</v>
       </c>
@@ -3612,10 +3727,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B90" s="7" t="str">
+      <c r="B90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>RUTTING_VALUE_TEXT,RUTTING_VALUE_DATE,F_SYSTEM,NHS</v>
       </c>
@@ -3633,37 +3748,37 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B91" s="7" t="str">
+      <c r="B91" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B92" s="7" t="str">
+      <c r="B92" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B93" s="7" t="str">
+      <c r="B93" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B94" s="7" t="str">
+      <c r="B94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>RUTTING</v>
       </c>
@@ -3672,10 +3787,10 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B95" s="7" t="str">
+      <c r="B95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>FAULTING</v>
       </c>
@@ -3684,10 +3799,10 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B96" s="7" t="str">
+      <c r="B96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SURFACE_TYPE,LANE_WIDTH</v>
       </c>
@@ -3698,11 +3813,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:183" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
+    <row r="97" spans="1:193" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B97" s="7" t="str">
+      <c r="B97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SURFACE_TYPE,CRACKING_PERCENT</v>
       </c>
@@ -3713,11 +3828,11 @@
         <v>157</v>
       </c>
     </row>
-    <row r="98" spans="1:183" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+    <row r="98" spans="1:193" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B98" s="7" t="str">
+      <c r="B98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>YEAR_LAST_CONSTRUCTION_VALUE_DATE</v>
       </c>
@@ -3725,11 +3840,11 @@
         <v>390</v>
       </c>
     </row>
-    <row r="99" spans="1:183" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
+    <row r="99" spans="1:193" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B99" s="7" t="str">
+      <c r="B99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SURFACE_TYPE,THICKNESS_RIGID</v>
       </c>
@@ -3740,11 +3855,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="1:183" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+    <row r="100" spans="1:193" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B100" s="7" t="str">
+      <c r="B100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SURFACE_TYPE,THICKNESS_FLEXIBLE</v>
       </c>
@@ -3755,11 +3870,11 @@
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="1:183" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+    <row r="101" spans="1:193" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B101" s="7" t="str">
+      <c r="B101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SURFACE_TYPE,THICKNESS_FLEXIBLE</v>
       </c>
@@ -3770,11 +3885,11 @@
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="1:183" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
+    <row r="102" spans="1:193" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B102" s="7" t="str">
+      <c r="B102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SURFACE_TYPE,THICKNESS_RIGID</v>
       </c>
@@ -3785,11 +3900,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="1:183" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
+    <row r="103" spans="1:193" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B103" s="7" t="str">
+      <c r="B103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>DIR_THROUGH_LANES,THROUGH_LANES</v>
       </c>
@@ -3800,20 +3915,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:183" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
+    <row r="104" spans="1:193" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B104" s="7" t="str">
+      <c r="B104" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:183" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
+    <row r="105" spans="1:193" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B105" s="7" t="str">
+      <c r="B105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OWNERSHIP,MAINTENANCE_OPERATIONS</v>
       </c>
@@ -3824,17 +3939,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="106" spans="1:183" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
+    <row r="106" spans="1:193" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B106" s="7"/>
-    </row>
-    <row r="107" spans="1:183" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
+      <c r="B106" s="6"/>
+    </row>
+    <row r="107" spans="1:193" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B107" s="7" t="str">
+      <c r="B107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>FACILITY_TYPE,F_SYSTEM,URBAN_CODE,HPMS_SAMPLE_NO</v>
       </c>
@@ -3851,12 +3966,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="110" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:193" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="111" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:193" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>47</v>
       </c>
@@ -4406,10 +4521,40 @@
       <c r="GA111" t="s">
         <v>406</v>
       </c>
+      <c r="GB111" t="s">
+        <v>514</v>
+      </c>
+      <c r="GC111" t="s">
+        <v>515</v>
+      </c>
+      <c r="GD111" t="s">
+        <v>516</v>
+      </c>
+      <c r="GE111" t="s">
+        <v>517</v>
+      </c>
+      <c r="GF111" t="s">
+        <v>518</v>
+      </c>
+      <c r="GG111" t="s">
+        <v>519</v>
+      </c>
+      <c r="GH111" t="s">
+        <v>520</v>
+      </c>
+      <c r="GI111" t="s">
+        <v>521</v>
+      </c>
+      <c r="GJ111" t="s">
+        <v>522</v>
+      </c>
+      <c r="GK111" t="s">
+        <v>523</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C2:BL21 C22:F22 H22:BL22 U23:BL107 C23:T51" xr:uid="{83B01C7A-368D-4408-8F6C-876D6B156AF6}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C2:BL21 C23:T43 C22:F22 F44:T44 U23:BL107 H22:BL22 L45:T51 G45:K46 J48:K51 C44:C51 D45:F47 D49:I51 I48" xr:uid="{83B01C7A-368D-4408-8F6C-876D6B156AF6}">
       <formula1>$111:$111</formula1>
     </dataValidation>
     <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C52:T107" xr:uid="{10AE5958-CEE7-4FF9-AC3E-2CBB6F4572BC}">
@@ -4422,9 +4567,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B91" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4437,9 +4582,10 @@
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="22.140625" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4461,8 +4607,11 @@
       <c r="G1" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>407</v>
       </c>
@@ -4477,7 +4626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>408</v>
       </c>
@@ -4491,9 +4640,9 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>409</v>
       </c>
@@ -4508,7 +4657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>410</v>
       </c>
@@ -4523,7 +4672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>411</v>
       </c>
@@ -4538,7 +4687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>412</v>
       </c>
@@ -4553,7 +4702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>413</v>
       </c>
@@ -4568,7 +4717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>414</v>
       </c>
@@ -4583,7 +4732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>415</v>
       </c>
@@ -4598,7 +4747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>416</v>
       </c>
@@ -4613,7 +4762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>417</v>
       </c>
@@ -4628,7 +4777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>418</v>
       </c>
@@ -4643,7 +4792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>419</v>
       </c>
@@ -4658,7 +4807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>420</v>
       </c>
@@ -4673,7 +4822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>421</v>
       </c>
@@ -6042,7 +6191,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G107" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}"/>
+  <autoFilter ref="A1:H107" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}"/>
   <conditionalFormatting sqref="B2:B108">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>ISREF(INDIRECT(A2&amp;"!A1"))</formula>

--- a/fullspatialerrors_template.xlsx
+++ b/fullspatialerrors_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e122438\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F813A0A7-7F77-4549-9DE6-3A1CD7B69E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1180171-930F-4078-BF74-7655D9876708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
   <sheets>
     <sheet name="ruleDataItems" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="525">
   <si>
     <t>Rule</t>
   </si>
@@ -1612,6 +1612,9 @@
   </si>
   <si>
     <t>GRADES_E</t>
+  </si>
+  <si>
+    <t>BEGIN_DATE</t>
   </si>
 </sst>
 </file>
@@ -2046,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2B6993-24F5-4E36-B923-10E570918712}">
-  <dimension ref="A1:GK111"/>
+  <dimension ref="A1:GL111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:I48"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,7 +3174,7 @@
       </c>
       <c r="B56" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>HPMS_SAMPLE_NO,SURFACE_TYPE,YEAR_LAST_CONSTRUCTION_VALUE_DATE,YEAR_LAST_IMPROVEMENT_VALUE_DATE</v>
+        <v>HPMS_SAMPLE_NO,SURFACE_TYPE,YEAR_LAST_CONSTRUCTION_VALUE_DATE,YEAR_LAST_IMPROVEMENT_VALUE_DATE,BEGIN_DATE</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>278</v>
@@ -3184,6 +3187,9 @@
       </c>
       <c r="F56" s="5" t="s">
         <v>398</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3327,7 +3333,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>185</v>
       </c>
@@ -3345,7 +3351,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>188</v>
       </c>
@@ -3354,7 +3360,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>190</v>
       </c>
@@ -3363,7 +3369,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>192</v>
       </c>
@@ -3372,7 +3378,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>194</v>
       </c>
@@ -3393,7 +3399,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>197</v>
       </c>
@@ -3408,7 +3414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>199</v>
       </c>
@@ -3426,7 +3432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>201</v>
       </c>
@@ -3441,7 +3447,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>203</v>
       </c>
@@ -3453,7 +3459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>205</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>207</v>
       </c>
@@ -3483,7 +3489,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>209</v>
       </c>
@@ -3498,7 +3504,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>211</v>
       </c>
@@ -3516,7 +3522,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>213</v>
       </c>
@@ -3531,13 +3537,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>215</v>
       </c>
       <c r="B79" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>IRI_VALUE_DATE,HPMS_SAMPLE_NO</v>
+        <v>IRI_VALUE_DATE,HPMS_SAMPLE_NO,BEGIN_DATE,F_SYSTEM,NHS,IRI_VALUE_TEXT</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>380</v>
@@ -3545,14 +3551,26 @@
       <c r="D79" s="5" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>217</v>
       </c>
       <c r="B80" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>RUTTING_VALUE_DATE,HPMS_SAMPLE_NO</v>
+        <v>RUTTING_VALUE_DATE,HPMS_SAMPLE_NO,BEGIN_DATE,F_SYSTEM,NHS,RUTTING_VALUE_TEXT</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>386</v>
@@ -3560,14 +3578,26 @@
       <c r="D80" s="5" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>218</v>
       </c>
       <c r="B81" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>FAULTING_VALUE_DATE,HPMS_SAMPLE_NO</v>
+        <v>FAULTING_VALUE_DATE,HPMS_SAMPLE_NO,BEGIN_DATE</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>384</v>
@@ -3575,14 +3605,17 @@
       <c r="D81" s="5" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>219</v>
       </c>
       <c r="B82" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>CRACKING_PERCENT_VALUE_DATE,HPMS_SAMPLE_NO</v>
+        <v>CRACKING_PERCENT_VALUE_DATE,HPMS_SAMPLE_NO,BEGIN_DATE,F_SYSTEM,NHS,CRACKING_PERCENT_VALUE_TEXT</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>382</v>
@@ -3590,14 +3623,26 @@
       <c r="D82" s="5" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>221</v>
       </c>
       <c r="B83" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>CRACKING_PERCENT_VALUE_DATE,CRACKING_PERCENT_VALUE_TEXT,F_SYSTEM</v>
+        <v>CRACKING_PERCENT_VALUE_DATE,CRACKING_PERCENT_VALUE_TEXT,F_SYSTEM,BEGIN_DATE</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>382</v>
@@ -3608,14 +3653,17 @@
       <c r="E83" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>224</v>
       </c>
       <c r="B84" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>FAULTING_VALUE_DATE,FAULTING_VALUE_TEXT,F_SYSTEM</v>
+        <v>FAULTING_VALUE_DATE,FAULTING_VALUE_TEXT,F_SYSTEM,BEGIN_DATE</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>384</v>
@@ -3626,14 +3674,17 @@
       <c r="E84" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B85" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>IRI_VALUE_DATE,IRI_VALUE_TEXT,F_SYSTEM</v>
+        <v>IRI_VALUE_DATE,IRI_VALUE_TEXT,F_SYSTEM,BEGIN_DATE</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>380</v>
@@ -3644,14 +3695,17 @@
       <c r="E85" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B86" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>RUTTING_VALUE_DATE,RUTTING_VALUE_TEXT,F_SYSTEM</v>
+        <v>RUTTING_VALUE_DATE,RUTTING_VALUE_TEXT,F_SYSTEM,BEGIN_DATE</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>386</v>
@@ -3662,8 +3716,11 @@
       <c r="E86" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>229</v>
       </c>
@@ -3684,7 +3741,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>231</v>
       </c>
@@ -3705,7 +3762,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>232</v>
       </c>
@@ -3726,7 +3783,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>233</v>
       </c>
@@ -3747,7 +3804,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>234</v>
       </c>
@@ -3756,7 +3813,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>236</v>
       </c>
@@ -3765,7 +3822,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>238</v>
       </c>
@@ -3774,7 +3831,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>241</v>
       </c>
@@ -3786,7 +3843,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>243</v>
       </c>
@@ -3798,7 +3855,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>245</v>
       </c>
@@ -3813,7 +3870,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:193" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>247</v>
       </c>
@@ -3828,19 +3885,22 @@
         <v>157</v>
       </c>
     </row>
-    <row r="98" spans="1:193" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>249</v>
       </c>
       <c r="B98" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>YEAR_LAST_CONSTRUCTION_VALUE_DATE</v>
+        <v>YEAR_LAST_CONSTRUCTION_VALUE_DATE,BEGIN_DATE</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="99" spans="1:193" x14ac:dyDescent="0.25">
+      <c r="D98" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="99" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>251</v>
       </c>
@@ -3855,7 +3915,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="1:193" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>254</v>
       </c>
@@ -3870,7 +3930,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="1:193" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>256</v>
       </c>
@@ -3885,7 +3945,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="1:193" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>258</v>
       </c>
@@ -3900,7 +3960,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="1:193" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>260</v>
       </c>
@@ -3915,7 +3975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:193" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>262</v>
       </c>
@@ -3924,7 +3984,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:193" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>265</v>
       </c>
@@ -3939,13 +3999,13 @@
         <v>193</v>
       </c>
     </row>
-    <row r="106" spans="1:193" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>267</v>
       </c>
       <c r="B106" s="6"/>
     </row>
-    <row r="107" spans="1:193" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>270</v>
       </c>
@@ -3966,12 +4026,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="110" spans="1:193" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="111" spans="1:193" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>47</v>
       </c>
@@ -4550,6 +4610,9 @@
       </c>
       <c r="GK111" t="s">
         <v>523</v>
+      </c>
+      <c r="GL111" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -4569,7 +4632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView topLeftCell="B91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/fullspatialerrors_template.xlsx
+++ b/fullspatialerrors_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e122438\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1180171-930F-4078-BF74-7655D9876708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A8143B-7E36-4407-B545-4E4DF37728C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="525">
   <si>
     <t>Rule</t>
   </si>
@@ -2051,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2B6993-24F5-4E36-B923-10E570918712}">
   <dimension ref="A1:GL111"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B71" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>COUNTER_PEAK_LANES,PEAK_LANES,THROUGH_LANES</v>
+        <v>COUNTER_PEAK_LANES,PEAK_LANES,THROUGH_LANES,HPMS_SAMPLE_NO</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>33</v>
@@ -3430,6 +3430,9 @@
       </c>
       <c r="E71" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4633,7 +4636,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
